--- a/Assets/Excel/Level.xlsx
+++ b/Assets/Excel/Level.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>//Remark</t>
   </si>
@@ -56,13 +56,37 @@
     <t>string</t>
   </si>
   <si>
+    <t>2个萝卜</t>
+  </si>
+  <si>
     <t>1001;2001</t>
   </si>
   <si>
-    <t>2个萝卜粥</t>
-  </si>
-  <si>
-    <t>4个萝卜粥</t>
+    <t>3个萝卜粥</t>
+  </si>
+  <si>
+    <t>1002;2001</t>
+  </si>
+  <si>
+    <t>3个蝌蚪药剂</t>
+  </si>
+  <si>
+    <t>1001;1002;2001</t>
+  </si>
+  <si>
+    <t>3个萝卜蝌蚪汤</t>
+  </si>
+  <si>
+    <t>1002;2001;2002</t>
+  </si>
+  <si>
+    <t>3个鱼汤</t>
+  </si>
+  <si>
+    <t>1001;1002;2001;2002</t>
+  </si>
+  <si>
+    <t>3个萝卜蝌蚪鱼汤</t>
   </si>
 </sst>
 </file>
@@ -993,15 +1017,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="15.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="22.0909090909091" customWidth="1"/>
     <col min="3" max="4" width="13.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="12.4545454545455" customWidth="1"/>
   </cols>
@@ -1049,17 +1073,17 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
+      <c r="B4">
+        <v>1001</v>
       </c>
       <c r="C4">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1067,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2001</v>
@@ -1077,6 +1101,74 @@
       </c>
       <c r="E5" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2002</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>3012</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>2003</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>4123</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
